--- a/docs/CheckList.xlsx
+++ b/docs/CheckList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Android Training (1 week : 20/8 →26/8 – 5 days)
 27/8: review</t>
@@ -45,7 +45,7 @@
     <t>2-3h</t>
   </si>
   <si>
-    <t>20/8</t>
+    <t>Chốt 24/8 xong</t>
   </si>
   <si>
     <t>Activity, lauch mode
@@ -61,9 +61,6 @@
     <t>Các loại service, dùng khi nào</t>
   </si>
   <si>
-    <t>21/8</t>
-  </si>
-  <si>
     <t>Thread, AsysTask</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
   </si>
   <si>
     <t>SQLite</t>
-  </si>
-  <si>
-    <t>24/8</t>
   </si>
   <si>
     <t>Animation</t>
@@ -174,6 +168,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -194,22 +189,26 @@
       <sz val="24"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -279,16 +278,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -308,19 +307,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -411,7 +406,9 @@
   <cols>
     <col collapsed="false" hidden="false" max="14" min="1" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.9897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -658,16 +655,14 @@
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="n">
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -684,14 +679,14 @@
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="8"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="n">
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -708,21 +703,21 @@
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="8"/>
+      <c r="Q18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="n">
         <v>7</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -734,14 +729,14 @@
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="8"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="n">
         <v>8</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -758,16 +753,14 @@
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="Q20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="n">
         <v>9</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -784,19 +777,19 @@
       </c>
       <c r="O21" s="6"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="n">
         <v>10</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -813,10 +806,10 @@
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="n">
@@ -876,21 +869,21 @@
       <c r="P25" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
+      <c r="A41" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="62" customFormat="false" ht="578.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="47">
     <mergeCell ref="B4:S8"/>
     <mergeCell ref="L10:S10"/>
     <mergeCell ref="C12:G12"/>
@@ -899,7 +892,7 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="Q13:Q15"/>
+    <mergeCell ref="Q13:Q22"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="N14:O14"/>
@@ -909,7 +902,6 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="H16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="Q16:Q19"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="H17:M17"/>
     <mergeCell ref="N17:O17"/>
@@ -922,7 +914,6 @@
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="Q20:Q22"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:O21"/>

--- a/docs/CheckList.xlsx
+++ b/docs/CheckList.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Research " sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Coding" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -211,7 +212,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +237,12 @@
         <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -278,7 +285,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -308,6 +315,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -398,8 +413,8 @@
   </sheetPr>
   <dimension ref="A4:T62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q13" activeCellId="0" sqref="Q13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -632,53 +647,53 @@
       <c r="Q15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="5"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="9"/>
+      <c r="P16" s="8"/>
       <c r="Q16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="5"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="9"/>
+      <c r="P17" s="8"/>
       <c r="Q17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -732,27 +747,27 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="5"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="9"/>
+      <c r="P20" s="8"/>
       <c r="Q20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -778,11 +793,11 @@
       <c r="O21" s="6"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="8" t="s">
+      <c r="R21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="n">
@@ -807,9 +822,9 @@
       <c r="O22" s="6"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="n">
@@ -869,17 +884,17 @@
       <c r="P25" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="578.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -940,4 +955,30 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/docs/CheckList.xlsx
+++ b/docs/CheckList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Android Training (1 week : 20/8 →26/8 – 5 days)
 27/8: review</t>
@@ -46,6 +46,9 @@
     <t>2-3h</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>Chốt 24/8 xong</t>
   </si>
   <si>
@@ -75,6 +78,9 @@
   </si>
   <si>
     <t>SQLite</t>
+  </si>
+  <si>
+    <t>Working</t>
   </si>
   <si>
     <t>Animation</t>
@@ -156,6 +162,89 @@
 + Viewpager
 + Fragment"</t>
   </si>
+  <si>
+    <t>List Function</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <r>
+      <t>Get Weather
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>http://openweathermap.org/api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>- Activity, Fragment
+- ListView / RecyclerView
+- Dialog (ask checking Internet)
+- Json , API
+- UI Layout,UI control
+- ViewPager :
++ Current weather
++ 16 day weather Forecast
++ Weather of cities</t>
+  </si>
+  <si>
+    <t>Drawer Menu</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>- Database (Title, Date, Description)
+</t>
+  </si>
+  <si>
+    <t> Clock Widget</t>
+  </si>
+  <si>
+    <t>- Widget</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>- Feed back (call email)</t>
+  </si>
+  <si>
+    <t>Splash screen (fake)</t>
+  </si>
+  <si>
+    <t>- Progressbar
+- AsyncTask</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>- Change theme</t>
+  </si>
 </sst>
 </file>
 
@@ -164,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -211,8 +300,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,7 +318,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00CC33"/>
-        <bgColor rgb="FF339966"/>
+        <bgColor rgb="FF00CC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -239,8 +335,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
+        <bgColor rgb="FF00CC33"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -285,7 +393,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -318,6 +426,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -331,6 +447,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -348,7 +480,7 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00CC33"/>
+      <rgbColor rgb="FF00CC00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -394,7 +526,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00CC33"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -413,8 +545,8 @@
   </sheetPr>
   <dimension ref="A4:T62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -591,9 +723,11 @@
         <v>8</v>
       </c>
       <c r="O13" s="6"/>
-      <c r="P13" s="5"/>
+      <c r="P13" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="Q13" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -603,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -619,7 +753,9 @@
         <v>8</v>
       </c>
       <c r="O14" s="6"/>
-      <c r="P14" s="5"/>
+      <c r="P14" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="Q14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -627,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -643,7 +779,9 @@
         <v>8</v>
       </c>
       <c r="O15" s="6"/>
-      <c r="P15" s="5"/>
+      <c r="P15" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="Q15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -651,14 +789,14 @@
         <v>4</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -669,7 +807,9 @@
         <v>8</v>
       </c>
       <c r="O16" s="9"/>
-      <c r="P16" s="8"/>
+      <c r="P16" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="Q16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -677,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -693,7 +833,9 @@
         <v>8</v>
       </c>
       <c r="O17" s="9"/>
-      <c r="P17" s="8"/>
+      <c r="P17" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="Q17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -701,7 +843,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -717,7 +859,9 @@
         <v>8</v>
       </c>
       <c r="O18" s="6"/>
-      <c r="P18" s="5"/>
+      <c r="P18" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="Q18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -725,14 +869,14 @@
         <v>7</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -743,31 +887,35 @@
         <v>8</v>
       </c>
       <c r="O19" s="6"/>
-      <c r="P19" s="5"/>
+      <c r="P19" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="Q19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="8" t="n">
+      <c r="B20" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9" t="s">
+      <c r="C20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O20" s="9"/>
-      <c r="P20" s="8"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="Q20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -775,7 +923,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -791,20 +939,22 @@
         <v>8</v>
       </c>
       <c r="O21" s="6"/>
-      <c r="P21" s="5"/>
+      <c r="P21" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="Q21" s="7"/>
-      <c r="R21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
+      <c r="R21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="n">
         <v>10</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -820,11 +970,13 @@
         <v>8</v>
       </c>
       <c r="O22" s="6"/>
-      <c r="P22" s="5"/>
+      <c r="P22" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="Q22" s="7"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="n">
@@ -884,17 +1036,17 @@
       <c r="P25" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="A41" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
     </row>
     <row r="62" customFormat="false" ht="578.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -962,17 +1114,220 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B3:E27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="14" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="68.0816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="34.7295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="18.4744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="14" width="11.5204081632653"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="107.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="67.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" display="http://openweathermap.org/api"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/docs/CheckList.xlsx
+++ b/docs/CheckList.xlsx
@@ -172,29 +172,10 @@
     <t>Description</t>
   </si>
   <si>
-    <r>
-      <t>Get Weather
+    <t>Get Weather  
+link:
+http://openweathermap.org/api 
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>http://openweathermap.org/api</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
   </si>
   <si>
     <t>- Activity, Fragment
@@ -205,7 +186,7 @@
 - ViewPager :
 + Current weather
 + 16 day weather Forecast
-+ Weather of cities</t>
+</t>
   </si>
   <si>
     <t>Drawer Menu</t>
@@ -253,7 +234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -296,13 +277,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -393,7 +367,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -426,14 +400,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -454,7 +420,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -785,54 +751,54 @@
       <c r="Q15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9" t="s">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O16" s="9"/>
+      <c r="O16" s="6"/>
       <c r="P16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="Q16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="9"/>
+      <c r="O17" s="6"/>
       <c r="P17" s="5" t="s">
         <v>9</v>
       </c>
@@ -893,27 +859,27 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="10" t="n">
+      <c r="B20" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="10" t="s">
+      <c r="O20" s="9"/>
+      <c r="P20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7"/>
@@ -943,11 +909,11 @@
         <v>9</v>
       </c>
       <c r="Q21" s="7"/>
-      <c r="R21" s="12" t="s">
+      <c r="R21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="n">
@@ -974,9 +940,9 @@
         <v>9</v>
       </c>
       <c r="Q22" s="7"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="n">
@@ -1036,17 +1002,17 @@
       <c r="P25" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="578.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1114,58 +1080,82 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:E27"/>
+  <dimension ref="B1:E27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="14" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="68.0816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="34.7295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="18.4744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="14" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="12" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="68.0816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="34.7295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="18.4744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="12" width="11.5204081632653"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+    </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1176,7 +1166,7 @@
       <c r="C10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="5"/>
@@ -1188,7 +1178,7 @@
       <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1198,7 +1188,7 @@
       <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="67.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1208,7 +1198,7 @@
       <c r="C13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="5"/>
@@ -1220,7 +1210,7 @@
       <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="5"/>
@@ -1232,7 +1222,7 @@
       <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="5"/>
@@ -1244,7 +1234,7 @@
       <c r="C16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="5"/>
@@ -1256,7 +1246,7 @@
       <c r="C17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="5"/>
@@ -1264,70 +1254,67 @@
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="17"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="17"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="17"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="17"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="17"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="17"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="17"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:E6"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" display="http://openweathermap.org/api"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
